--- a/git_commands.xlsx
+++ b/git_commands.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="249">
   <si>
     <t>command</t>
   </si>
@@ -76,6 +76,27 @@
     <t>git config --global user.name "name here"</t>
   </si>
   <si>
+    <t>configure end-of-line settings</t>
+  </si>
+  <si>
+    <t>git config --global core.autocrlf &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>windows uses CR and LF to mark a newline. Mac and Linux just use LF. Git will fix this discrepancy automatically, but changing newlines to LF. </t>
+  </si>
+  <si>
+    <t>On windows, run this command with `true` as the value (without backticks). On Mac or Linux, use `input`. For a windows-only project, use `false`.</t>
+  </si>
+  <si>
+    <t>it's also possible to configure these settings for individual repos</t>
+  </si>
+  <si>
+    <t>list config settings</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
     <t>init</t>
   </si>
   <si>
@@ -325,6 +346,15 @@
     <t>can also checkout previous commits with 'git checkout HEAD~x' where x is the number of commits you'd like to go back</t>
   </si>
   <si>
+    <t>revert individual file to previous commit state</t>
+  </si>
+  <si>
+    <t>git checkout &lt;first 8 digits of commit ID&gt; &lt;filepath&gt;</t>
+  </si>
+  <si>
+    <t>this will automatically stage the previous changes, and all you have to do is git commit -m &lt;message&gt; and push</t>
+  </si>
+  <si>
     <t>discard uncommitted changes</t>
   </si>
   <si>
@@ -557,6 +587,9 @@
   </si>
   <si>
     <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>first run git fetch --all</t>
   </si>
   <si>
     <t>stash</t>
@@ -1026,12 +1059,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1078,8 +1111,6 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1094,8 +1125,6 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
@@ -1105,8 +1134,6 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0"/>
@@ -1116,8 +1143,6 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0"/>
@@ -1127,37 +1152,33 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0"/>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="G7" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1172,8 +1193,6 @@
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
@@ -1183,121 +1202,104 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16" s="0"/>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B19" s="0"/>
       <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1307,7 +1309,6 @@
       <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
@@ -1317,152 +1318,135 @@
       <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="0"/>
       <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C23" s="0"/>
       <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+      <c r="E26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B27" s="0"/>
       <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+      <c r="E27" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="A28" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B30" s="0"/>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
@@ -1472,235 +1456,209 @@
       <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="0"/>
+      <c r="C34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
+      <c r="F34" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="0"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
+      <c r="A37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="0"/>
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
+      <c r="F40" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
+      <c r="A42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
+      <c r="E45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="0"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
+      <c r="D47" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
@@ -1710,149 +1668,133 @@
       <c r="D49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
+      <c r="E49" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
+      <c r="A51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="0"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
+        <v>165</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="B55" s="0"/>
       <c r="C55" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
+        <v>171</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="0"/>
+        <v>174</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0"/>
+      <c r="A58" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="0"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="0"/>
+      <c r="C60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
@@ -1862,112 +1804,147 @@
       <c r="D61" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="0"/>
+      <c r="E61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
       <c r="C62" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="0"/>
+        <v>189</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
+      <c r="A63" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C63" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="0"/>
+        <v>194</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="0"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="B66" s="0"/>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="B67" s="0"/>
       <c r="C67" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B68" s="0"/>
+      <c r="C68" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="E68" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="3" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +1966,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1998,15 +1975,15 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -2014,66 +1991,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2105,27 +2082,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
